--- a/DOC/結合テスト/EMSM_結合テストエビデンス_給料リスト.xlsx
+++ b/DOC/結合テスト/EMSM_結合テストエビデンス_給料リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\git\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C45E76A-7810-433C-A205-1C640CBE6416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C42BA4-D8E4-4D26-A2CC-9F217638C962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" activeTab="3" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
   </bookViews>
@@ -176,9 +176,6 @@
     <t>20230820</t>
   </si>
   <si>
-    <t>20230607</t>
-  </si>
-  <si>
     <t>E002</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>「一括作成」ボタン押す</t>
+  </si>
+  <si>
+    <t>20230608</t>
   </si>
 </sst>
 </file>
@@ -455,10 +455,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -476,16 +476,16 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1510,25 +1510,95 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14068</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>534572</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14068</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1A4410-50F0-4DAE-8F79-105B994BC765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6822831" y="3840482"/>
+          <a:ext cx="520504" cy="337623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19540</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>147713</xdr:rowOff>
+      <xdr:colOff>28135</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590843</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>49239</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>562734</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C402B9D0-0074-761E-21DC-344893D79CA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3461A7-8817-CDB5-51F9-33C7C17F2E84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,13 +1608,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="19767" r="50110" b="9750"/>
+        <a:srcRect l="27772" t="20983" r="6272" b="11741"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="638518" y="2335239"/>
-          <a:ext cx="5523131" cy="3207434"/>
+          <a:off x="647113" y="2665828"/>
+          <a:ext cx="7343363" cy="4213274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1556,22 +1626,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>35169</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161778</xdr:rowOff>
+      <xdr:colOff>7034</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>112542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>597876</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>7035</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>583809</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>168814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 9">
+        <xdr:cNvPr id="7" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69796301-7EA0-4471-90FA-B29990D7E01B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DF6F89-AE84-41A6-8D62-0C307D7F77FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,8 +1649,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="654147" y="5113606"/>
-          <a:ext cx="5514535" cy="1533380"/>
+          <a:off x="626012" y="4909625"/>
+          <a:ext cx="7385539" cy="1533380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1627,21 +1697,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>112542</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>189914</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>35169</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 9">
+        <xdr:cNvPr id="8" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A870B1-FAF9-4D6B-85AD-475EDC87E519}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B97A3E-EDC9-42F3-8114-3F4ED0BA7CB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1649,8 +1719,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="618978" y="3798277"/>
-          <a:ext cx="1427871" cy="281354"/>
+          <a:off x="618978" y="3706838"/>
+          <a:ext cx="1427871" cy="281353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1695,23 +1765,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>119576</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>77374</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>98473</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>189914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>21101</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>203982</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>618977</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>105506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形 9">
+        <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1A4410-50F0-4DAE-8F79-105B994BC765}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8BB7DDF-4F1D-4C09-885B-0083144E4067}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,8 +1789,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5690382" y="3763109"/>
-          <a:ext cx="520504" cy="337624"/>
+          <a:off x="7526215" y="3720905"/>
+          <a:ext cx="520504" cy="337623"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2065,138 +2135,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF951A0-4775-4CC1-8743-B4E63912ED7F}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.2"/>
+  <sheetFormatPr defaultRowHeight="16.649999999999999"/>
   <cols>
     <col min="1" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="16.649999999999999">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.649999999999999">
+    <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>85</v>
-      </c>
     </row>
-    <row r="17" spans="1:34" ht="16.649999999999999"/>
-    <row r="19" spans="1:34" ht="16.649999999999999">
+    <row r="19" spans="1:34">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" s="13" customFormat="1" ht="16.649999999999999">
+    <row r="20" spans="1:34" s="13" customFormat="1">
       <c r="B20" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" s="13" customFormat="1">
+      <c r="B21" s="14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" s="13" customFormat="1" ht="16.649999999999999">
-      <c r="B21" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="F21" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="G21" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="H21" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="I21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="J21" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="K21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="L21" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="M21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="N21" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="O21" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="P21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="Q21" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="Q21" s="14" t="s">
+      <c r="R21" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="R21" s="14" t="s">
+      <c r="S21" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S21" s="14" t="s">
+      <c r="T21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="T21" s="14" t="s">
+      <c r="U21" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="U21" s="14" t="s">
+      <c r="V21" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="V21" s="14" t="s">
+      <c r="W21" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="W21" s="14" t="s">
+      <c r="X21" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="X21" s="14" t="s">
+      <c r="Y21" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="Y21" s="14" t="s">
+      <c r="Z21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="Z21" s="14" t="s">
+      <c r="AA21" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AA21" s="14" t="s">
+      <c r="AB21" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AB21" s="14" t="s">
+      <c r="AC21" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AC21" s="14" t="s">
+      <c r="AD21" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AD21" s="14" t="s">
+      <c r="AE21" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AE21" s="14" t="s">
+      <c r="AF21" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AF21" s="14" t="s">
+      <c r="AG21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AG21" s="14" t="s">
+      <c r="AH21" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="AH21" s="14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="49.85">
@@ -2300,7 +2369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="16.649999999999999">
+    <row r="23" spans="1:34">
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
@@ -2397,7 +2466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="16.649999999999999">
+    <row r="24" spans="1:34">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -2432,9 +2501,9 @@
       <c r="AG24" s="18"/>
       <c r="AH24" s="18"/>
     </row>
-    <row r="25" spans="1:34" ht="16.649999999999999">
+    <row r="25" spans="1:34">
       <c r="B25" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -2480,11 +2549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E3D11F-554B-44DA-909B-1A65A1A26D4F}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.2"/>
+  <sheetFormatPr defaultRowHeight="16.649999999999999"/>
   <cols>
     <col min="1" max="16384" width="8.796875" style="1"/>
   </cols>
@@ -2499,110 +2568,110 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" ht="10.55">
+    <row r="3" spans="1:34" s="5" customFormat="1" ht="15.55">
       <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" s="5" customFormat="1" ht="15.55">
+      <c r="B4" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" s="5" customFormat="1" ht="10.55">
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AC4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AD4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AE4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AG4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AH4" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="43.2">
@@ -2706,7 +2775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="14.4">
+    <row r="6" spans="1:34">
       <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
@@ -2875,7 +2944,7 @@
     </row>
     <row r="9" spans="1:34">
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2885,7 +2954,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2898,23 +2967,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C2C5B4-0B1E-4E55-BA4F-A4C37D5214E7}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.2"/>
+  <sheetFormatPr defaultRowHeight="16.649999999999999"/>
   <cols>
     <col min="1" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2925,136 +2994,136 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D897BA4-057F-4A51-A6E4-D7D7C2AF2A60}">
-  <dimension ref="A2:AH13"/>
+  <dimension ref="A2:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.2"/>
+  <sheetFormatPr defaultRowHeight="16.649999999999999"/>
   <cols>
     <col min="1" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:34">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.95" customHeight="1"/>
     <row r="4" spans="1:34" s="13" customFormat="1" ht="12.75" customHeight="1">
       <c r="B4" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="11.65" customHeight="1"/>
     <row r="6" spans="1:34" s="5" customFormat="1" ht="14.95" customHeight="1">
       <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" s="5" customFormat="1" ht="15.55">
+      <c r="B7" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" s="5" customFormat="1" ht="14.95" customHeight="1">
-      <c r="B7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH7" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" s="5" customFormat="1" ht="31.6">
+    <row r="8" spans="1:34" s="5" customFormat="1" ht="46.55">
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
@@ -3155,7 +3224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="5" customFormat="1" ht="10.55">
+    <row r="9" spans="1:34" s="5" customFormat="1" ht="15.55">
       <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
@@ -3175,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="9">
-        <v>101</v>
+        <v>402</v>
       </c>
       <c r="I9" s="9">
         <v>0</v>
@@ -3206,7 +3275,7 @@
         <v>1900</v>
       </c>
       <c r="S9" s="9">
-        <v>16889</v>
+        <v>1689</v>
       </c>
       <c r="T9" s="9">
         <v>1711</v>
@@ -3215,7 +3284,7 @@
         <v>1702</v>
       </c>
       <c r="V9" s="9">
-        <v>1683</v>
+        <v>1675</v>
       </c>
       <c r="W9" s="9">
         <v>1689</v>
@@ -3236,25 +3305,25 @@
         <v>0</v>
       </c>
       <c r="AC9" s="9">
-        <v>151539</v>
+        <v>151841</v>
       </c>
       <c r="AD9" s="9">
-        <v>192502</v>
+        <v>177595</v>
       </c>
       <c r="AE9" s="8"/>
       <c r="AF9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AG9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="5" customFormat="1" ht="15.55">
+      <c r="B10" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="AH9" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" s="5" customFormat="1" ht="10.55">
-      <c r="B10" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>43</v>
@@ -3275,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="9">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="J10" s="9">
         <v>9145</v>
@@ -3303,7 +3372,7 @@
         <v>9000</v>
       </c>
       <c r="S10" s="9">
-        <v>17706</v>
+        <v>1771</v>
       </c>
       <c r="T10" s="9">
         <v>1794</v>
@@ -3312,7 +3381,7 @@
         <v>1784</v>
       </c>
       <c r="V10" s="9">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="W10" s="9">
         <v>1771</v>
@@ -3333,25 +3402,25 @@
         <v>0</v>
       </c>
       <c r="AC10" s="9">
-        <v>155319</v>
+        <v>155244</v>
       </c>
       <c r="AD10" s="9">
-        <v>205344</v>
+        <v>189325</v>
       </c>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AG10" s="8" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AH10" s="8" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="5" customFormat="1" ht="10.55">
+    <row r="11" spans="1:34" s="5" customFormat="1" ht="15.55">
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>43</v>
@@ -3400,7 +3469,7 @@
         <v>9900</v>
       </c>
       <c r="S11" s="9">
-        <v>19976</v>
+        <v>1998</v>
       </c>
       <c r="T11" s="9">
         <v>2024</v>
@@ -3409,7 +3478,7 @@
         <v>2013</v>
       </c>
       <c r="V11" s="9">
-        <v>1991</v>
+        <v>1981</v>
       </c>
       <c r="W11" s="9">
         <v>1998</v>
@@ -3433,17 +3502,17 @@
         <v>177526</v>
       </c>
       <c r="AD11" s="9">
-        <v>233204</v>
+        <v>215215</v>
       </c>
       <c r="AE11" s="8"/>
       <c r="AF11" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AG11" s="8" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AH11" s="8" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:34" s="5" customFormat="1" ht="15.55">
@@ -3481,7 +3550,6 @@
       <c r="AG12" s="20"/>
       <c r="AH12" s="20"/>
     </row>
-    <row r="13" spans="1:34" ht="16.649999999999999"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
